--- a/2P sheets/all 2P/HUR_Genus_2PSummary.xlsx
+++ b/2P sheets/all 2P/HUR_Genus_2PSummary.xlsx
@@ -44,29 +44,28 @@
     <sheet name="Oulimnius" sheetId="36" state="visible" r:id="rId36"/>
     <sheet name="Paracapnia" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="Paraleptophlebia" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Paraleptophlebiidae" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="Probezzia" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="Prosimulium" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Prostoia" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Pycnopsyche" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Rhyacophila" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Sialis" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="Stenelmis" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Stenonema" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Stylogomphus" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Taeniopteryx" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="Tallaperla" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="Tanypodinae" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="Tanytarsini" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="Tipula" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="Wormaldia" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="Zoraena" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="Probezzia" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Prosimulium" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Prostoia" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Pycnopsyche" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Rhyacophila" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Sialis" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Stenelmis" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Stenonema" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Stylogomphus" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Taeniopteryx" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Tallaperla" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Tanypodinae" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Tanytarsini" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="Tipula" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="Wormaldia" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="Zoraena" sheetId="54" state="visible" r:id="rId54"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">Genus</t>
   </si>
@@ -234,9 +233,6 @@
   </si>
   <si>
     <t xml:space="preserve">Paraleptophlebia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraleptophlebiidae</t>
   </si>
   <si>
     <t xml:space="preserve">Probezzia</t>
@@ -7033,28 +7029,28 @@
         <v>62.43272335845</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08301097213</v>
+        <v>0.008301097213</v>
       </c>
       <c r="F2" t="n">
         <v>30.1399354144241</v>
       </c>
       <c r="G2" t="n">
-        <v>5.18260105870829</v>
+        <v>0.518260105870829</v>
       </c>
       <c r="H2" t="n">
-        <v>0.111007725015</v>
+        <v>0.0111007725015</v>
       </c>
       <c r="I2" t="n">
-        <v>3.34576566245425</v>
+        <v>0.334576566245425</v>
       </c>
       <c r="J2" t="n">
-        <v>53.532250599268</v>
+        <v>5.3532250599268</v>
       </c>
       <c r="K2" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L2" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M2" t="n">
         <v>2.41874712698349</v>
@@ -7063,7 +7059,7 @@
         <v>0.75</v>
       </c>
       <c r="O2" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P2" t="n">
         <v>3.22499616931132</v>
@@ -7086,16 +7082,16 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1390044779</v>
+        <v>0.01390044779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.48884212809473</v>
+        <v>0.448884212809473</v>
       </c>
       <c r="H3" t="n">
-        <v>0.24561904145</v>
+        <v>0.024561904145</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -7104,10 +7100,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L3" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M3" t="n">
         <v>2.41874712698349</v>
@@ -7116,7 +7112,7 @@
         <v>0.75</v>
       </c>
       <c r="O3" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P3" t="n">
         <v>3.22499616931132</v>
@@ -7139,16 +7135,16 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E4" t="n">
-        <v>0.352233605</v>
+        <v>0.0352233605</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.3746051130248</v>
+        <v>1.13746051130248</v>
       </c>
       <c r="H4" t="n">
-        <v>0.53837144015</v>
+        <v>0.053837144015</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -7157,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L4" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M4" t="n">
         <v>2.41874712698349</v>
@@ -7169,7 +7165,7 @@
         <v>0.75</v>
       </c>
       <c r="O4" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P4" t="n">
         <v>3.22499616931132</v>
@@ -7192,16 +7188,16 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7245092753</v>
+        <v>0.07245092753</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>23.3964243907427</v>
+        <v>2.33964243907427</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01527653025</v>
+        <v>0.101527653025</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -7210,10 +7206,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L5" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M5" t="n">
         <v>2.41874712698349</v>
@@ -7222,7 +7218,7 @@
         <v>0.75</v>
       </c>
       <c r="O5" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P5" t="n">
         <v>3.22499616931132</v>
@@ -7245,28 +7241,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3060437852</v>
+        <v>0.13060437852</v>
       </c>
       <c r="F6" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G6" t="n">
-        <v>42.1757950010764</v>
+        <v>4.21757950010764</v>
       </c>
       <c r="H6" t="n">
-        <v>1.2415650447</v>
+        <v>0.12415650447</v>
       </c>
       <c r="I6" t="n">
-        <v>6.68226611786868</v>
+        <v>0.668226611786867</v>
       </c>
       <c r="J6" t="n">
-        <v>106.916257885899</v>
+        <v>10.6916257885899</v>
       </c>
       <c r="K6" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L6" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M6" t="n">
         <v>2.41874712698349</v>
@@ -7275,7 +7271,7 @@
         <v>0.75</v>
       </c>
       <c r="O6" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P6" t="n">
         <v>3.22499616931132</v>
@@ -7298,28 +7294,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E7" t="n">
-        <v>1.1770863042</v>
+        <v>0.11770863042</v>
       </c>
       <c r="F7" t="n">
         <v>16.1463939720129</v>
       </c>
       <c r="G7" t="n">
-        <v>31.6761653444564</v>
+        <v>3.16761653444564</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2093214216</v>
+        <v>0.22093214216</v>
       </c>
       <c r="I7" t="n">
-        <v>35.6725740839613</v>
+        <v>3.56725740839613</v>
       </c>
       <c r="J7" t="n">
-        <v>570.76118534338</v>
+        <v>57.076118534338</v>
       </c>
       <c r="K7" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L7" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M7" t="n">
         <v>2.41874712698349</v>
@@ -7328,7 +7324,7 @@
         <v>0.75</v>
       </c>
       <c r="O7" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P7" t="n">
         <v>3.22499616931132</v>
@@ -7351,16 +7347,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>3.241556539</v>
+        <v>0.3241556539</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>34.8929659741658</v>
+        <v>3.48929659741658</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8262665975</v>
+        <v>0.38262665975</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -7369,10 +7365,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L8" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M8" t="n">
         <v>2.41874712698349</v>
@@ -7381,7 +7377,7 @@
         <v>0.75</v>
       </c>
       <c r="O8" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P8" t="n">
         <v>3.22499616931132</v>
@@ -7404,28 +7400,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>4.410976656</v>
+        <v>0.4410976656</v>
       </c>
       <c r="F9" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>47.4809112594187</v>
+        <v>4.74809112594187</v>
       </c>
       <c r="H9" t="n">
-        <v>6.36824672065</v>
+        <v>0.636824672065</v>
       </c>
       <c r="I9" t="n">
-        <v>-68.5494803083961</v>
+        <v>-6.85494803083961</v>
       </c>
       <c r="J9" t="n">
-        <v>-1096.79168493434</v>
+        <v>-109.679168493434</v>
       </c>
       <c r="K9" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L9" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M9" t="n">
         <v>2.41874712698349</v>
@@ -7434,7 +7430,7 @@
         <v>0.75</v>
       </c>
       <c r="O9" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P9" t="n">
         <v>3.22499616931132</v>
@@ -7457,16 +7453,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E10" t="n">
-        <v>8.3255167853</v>
+        <v>0.83255167853</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>179.236098714747</v>
+        <v>17.9236098714747</v>
       </c>
       <c r="H10" t="n">
-        <v>9.4521059105</v>
+        <v>0.94521059105</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -7475,10 +7471,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L10" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M10" t="n">
         <v>2.41874712698349</v>
@@ -7487,7 +7483,7 @@
         <v>0.75</v>
       </c>
       <c r="O10" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P10" t="n">
         <v>3.22499616931132</v>
@@ -7510,16 +7506,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E11" t="n">
-        <v>10.5786950357</v>
+        <v>1.05786950357</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>227.743703674919</v>
+        <v>22.7743703674919</v>
       </c>
       <c r="H11" t="n">
-        <v>11.89998344535</v>
+        <v>1.189998344535</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -7528,10 +7524,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L11" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M11" t="n">
         <v>2.41874712698349</v>
@@ -7540,7 +7536,7 @@
         <v>0.75</v>
       </c>
       <c r="O11" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P11" t="n">
         <v>3.22499616931132</v>
@@ -7563,16 +7559,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E12" t="n">
-        <v>13.221271855</v>
+        <v>1.3221271855</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>284.634485575888</v>
+        <v>28.4634485575888</v>
       </c>
       <c r="H12" t="n">
-        <v>14.754529218</v>
+        <v>1.4754529218</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -7581,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L12" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M12" t="n">
         <v>2.41874712698349</v>
@@ -7593,7 +7589,7 @@
         <v>0.75</v>
       </c>
       <c r="O12" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P12" t="n">
         <v>3.22499616931132</v>
@@ -7616,16 +7612,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E13" t="n">
-        <v>16.287786581</v>
+        <v>1.6287786581</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>350.652025425188</v>
+        <v>35.0652025425188</v>
       </c>
       <c r="H13" t="n">
-        <v>18.0505520635</v>
+        <v>1.80505520635</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -7634,10 +7630,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L13" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M13" t="n">
         <v>2.41874712698349</v>
@@ -7646,7 +7642,7 @@
         <v>0.75</v>
       </c>
       <c r="O13" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P13" t="n">
         <v>3.22499616931132</v>
@@ -7669,28 +7665,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E14" t="n">
-        <v>19.813317546</v>
+        <v>1.9813317546</v>
       </c>
       <c r="F14" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G14" t="n">
-        <v>426.551507987083</v>
+        <v>42.6551507987083</v>
       </c>
       <c r="H14" t="n">
-        <v>10.989997683</v>
+        <v>1.0989997683</v>
       </c>
       <c r="I14" t="n">
-        <v>118.299221560818</v>
+        <v>11.8299221560818</v>
       </c>
       <c r="J14" t="n">
-        <v>1892.78754497309</v>
+        <v>189.278754497309</v>
       </c>
       <c r="K14" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L14" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M14" t="n">
         <v>2.41874712698349</v>
@@ -7699,7 +7695,7 @@
         <v>0.75</v>
       </c>
       <c r="O14" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P14" t="n">
         <v>3.22499616931132</v>
@@ -7722,16 +7718,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E15" t="n">
-        <v>2.16667782</v>
+        <v>0.216667782</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>23.3226891280947</v>
+        <v>2.33226891280947</v>
       </c>
       <c r="H15" t="n">
-        <v>13.985285615</v>
+        <v>1.3985285615</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -7740,10 +7736,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L15" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M15" t="n">
         <v>2.41874712698349</v>
@@ -7752,7 +7748,7 @@
         <v>0.75</v>
       </c>
       <c r="O15" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P15" t="n">
         <v>3.22499616931132</v>
@@ -7775,16 +7771,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E16" t="n">
-        <v>25.80389341</v>
+        <v>2.580389341</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>277.759886006459</v>
+        <v>27.7759886006459</v>
       </c>
       <c r="H16" t="n">
-        <v>30.73133182</v>
+        <v>3.073133182</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -7793,10 +7789,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L16" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M16" t="n">
         <v>2.41874712698349</v>
@@ -7805,7 +7801,7 @@
         <v>0.75</v>
       </c>
       <c r="O16" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P16" t="n">
         <v>3.22499616931132</v>
@@ -7828,28 +7824,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E17" t="n">
-        <v>35.65877023</v>
+        <v>3.565877023</v>
       </c>
       <c r="F17" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G17" t="n">
-        <v>383.84036846071</v>
+        <v>38.384036846071</v>
       </c>
       <c r="H17" t="n">
-        <v>17.829385115</v>
+        <v>1.7829385115</v>
       </c>
       <c r="I17" t="n">
-        <v>191.920184230355</v>
+        <v>19.1920184230355</v>
       </c>
       <c r="J17" t="n">
-        <v>3070.72294768568</v>
+        <v>307.072294768568</v>
       </c>
       <c r="K17" t="n">
-        <v>2354.40907524278</v>
+        <v>235.440907524278</v>
       </c>
       <c r="L17" t="n">
-        <v>5694.72018648732</v>
+        <v>569.472018648732</v>
       </c>
       <c r="M17" t="n">
         <v>2.41874712698349</v>
@@ -7858,7 +7854,7 @@
         <v>0.75</v>
       </c>
       <c r="O17" t="n">
-        <v>7592.96024864976</v>
+        <v>759.296024864976</v>
       </c>
       <c r="P17" t="n">
         <v>3.22499616931132</v>
@@ -9862,43 +9858,43 @@
         <v>28.7047003946896</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0765874934333333</v>
+        <v>0.00765874934333333</v>
       </c>
       <c r="F2" t="n">
         <v>7.17617509867241</v>
       </c>
       <c r="G2" t="n">
-        <v>2.19842105298409</v>
+        <v>0.219842105298409</v>
       </c>
       <c r="H2" t="n">
-        <v>0.132055003016667</v>
+        <v>0.0132055003016667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.947649824303313</v>
+        <v>0.0947649824303313</v>
       </c>
       <c r="J2" t="n">
-        <v>2.84294947290994</v>
+        <v>0.284294947290994</v>
       </c>
       <c r="K2" t="n">
-        <v>8.57207496794642</v>
+        <v>1.6835853843081</v>
       </c>
       <c r="L2" t="n">
-        <v>12.8804741166128</v>
+        <v>1.87434739239325</v>
       </c>
       <c r="M2" t="n">
-        <v>1.50260866415388</v>
+        <v>1.11330699937357</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>3.22011852915321</v>
+        <v>0.468586848098314</v>
       </c>
       <c r="P2" t="n">
-        <v>0.375652166038469</v>
+        <v>0.278326749843394</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.115752691149237</v>
+        <v>0.206758850873765</v>
       </c>
     </row>
     <row r="3">
@@ -9915,43 +9911,43 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1875225126</v>
+        <v>0.01875225126</v>
       </c>
       <c r="F3" t="n">
-        <v>10.7642626480086</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.03708315608181</v>
+        <v>0.403708315608181</v>
       </c>
       <c r="H3" t="n">
-        <v>0.20229496805</v>
+        <v>0.033995437655</v>
       </c>
       <c r="I3" t="n">
-        <v>2.17755616846071</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.53266850538213</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8.57207496794642</v>
+        <v>1.6835853843081</v>
       </c>
       <c r="L3" t="n">
-        <v>12.8804741166128</v>
+        <v>1.87434739239325</v>
       </c>
       <c r="M3" t="n">
-        <v>1.50260866415388</v>
+        <v>1.11330699937357</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>3.22011852915321</v>
+        <v>0.468586848098314</v>
       </c>
       <c r="P3" t="n">
-        <v>0.375652166038469</v>
+        <v>0.278326749843394</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.115752691149237</v>
+        <v>0.206758850873765</v>
       </c>
     </row>
     <row r="4">
@@ -9965,46 +9961,46 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>10.7642626480086</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2170674235</v>
+        <v>0.04923862405</v>
       </c>
       <c r="F4" t="n">
-        <v>10.7642626480086</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="G4" t="n">
-        <v>2.33657075888052</v>
+        <v>1.06003496340151</v>
       </c>
       <c r="H4" t="n">
-        <v>0.10853371175</v>
+        <v>0.024619312025</v>
       </c>
       <c r="I4" t="n">
-        <v>1.16828537944026</v>
+        <v>0.530017481700754</v>
       </c>
       <c r="J4" t="n">
-        <v>3.50485613832078</v>
+        <v>1.59005244510226</v>
       </c>
       <c r="K4" t="n">
-        <v>8.57207496794642</v>
+        <v>1.6835853843081</v>
       </c>
       <c r="L4" t="n">
-        <v>12.8804741166128</v>
+        <v>1.87434739239325</v>
       </c>
       <c r="M4" t="n">
-        <v>1.50260866415388</v>
+        <v>1.11330699937357</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>3.22011852915321</v>
+        <v>0.468586848098314</v>
       </c>
       <c r="P4" t="n">
-        <v>0.375652166038469</v>
+        <v>0.278326749843394</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.115752691149237</v>
+        <v>0.206758850873765</v>
       </c>
     </row>
   </sheetData>
@@ -10079,52 +10075,264 @@
         <v>56</v>
       </c>
       <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.8342303552207</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01096476235</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-12.9171151776103</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.283266196340151</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0197107718425</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.254606310129171</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.27303155064586</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.34264615609457</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14.3171683804514</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.53245324089597</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5.96548682518808</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.638522183706655</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.0460526940136292</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.275318817</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.96360405812702</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1376594085</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.48180202906351</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.48180202906351</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.96360405812702</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.48180202906351</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.123483502421959</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.751345532831</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.028456781335</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.07642626480087</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.1027385662648</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0315414470175</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0339520419994619</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.16976020999731</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.34264615609457</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14.3171683804514</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.53245324089597</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.96548682518808</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.638522183706655</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.0460526940136292</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.6749192680301</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0346261127</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-23.3225690706853</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.30453600053821</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0715348194122222</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1.66837576670055</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-8.34187883350277</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.34264615609457</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14.3171683804514</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.53245324089597</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.96548682518808</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.638522183706655</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.0460526940136292</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60.9974883387155</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.108443526124444</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50.2332256907069</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.61478272018499</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0559554012122222</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.81082029770761</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.0541014885381</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9.34264615609457</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14.3171683804514</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.53245324089597</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.96548682518808</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.638522183706655</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0460526940136292</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0034672763</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0373226727664155</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.00173363815</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0186613363832078</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0933066819160388</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.34264615609457</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14.3171683804514</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.53245324089597</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.96548682518808</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.638522183706655</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.0460526940136292</v>
       </c>
     </row>
   </sheetData>
@@ -10208,28 +10416,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0155</v>
+        <v>0.00155</v>
       </c>
       <c r="F2" t="n">
         <v>-32.2927879440258</v>
       </c>
       <c r="G2" t="n">
-        <v>0.417115177610334</v>
+        <v>0.0417115177610334</v>
       </c>
       <c r="H2" t="n">
-        <v>0.120399713525</v>
+        <v>0.0120399713525</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.88804241738428</v>
+        <v>-0.388804241738428</v>
       </c>
       <c r="J2" t="n">
-        <v>-23.3282545043057</v>
+        <v>-2.33282545043057</v>
       </c>
       <c r="K2" t="n">
-        <v>220.819321055902</v>
+        <v>22.0819321055902</v>
       </c>
       <c r="L2" t="n">
-        <v>583.940246717922</v>
+        <v>58.3940246717923</v>
       </c>
       <c r="M2" t="n">
         <v>2.64442551460473</v>
@@ -10238,7 +10446,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>291.970123358961</v>
+        <v>29.1970123358961</v>
       </c>
       <c r="P2" t="n">
         <v>1.32221275730237</v>
@@ -10261,28 +10469,28 @@
         <v>59.2034445640474</v>
       </c>
       <c r="E3" t="n">
-        <v>0.22529942705</v>
+        <v>0.022529942705</v>
       </c>
       <c r="F3" t="n">
         <v>-20.4520990312164</v>
       </c>
       <c r="G3" t="n">
-        <v>13.3385021396663</v>
+        <v>1.33385021396663</v>
       </c>
       <c r="H3" t="n">
-        <v>0.570023964725</v>
+        <v>0.0570023964725</v>
       </c>
       <c r="I3" t="n">
-        <v>-11.6581865767223</v>
+        <v>-1.16581865767223</v>
       </c>
       <c r="J3" t="n">
-        <v>-69.9491194603337</v>
+        <v>-6.99491194603337</v>
       </c>
       <c r="K3" t="n">
-        <v>220.819321055902</v>
+        <v>22.0819321055902</v>
       </c>
       <c r="L3" t="n">
-        <v>583.940246717922</v>
+        <v>58.3940246717923</v>
       </c>
       <c r="M3" t="n">
         <v>2.64442551460473</v>
@@ -10291,7 +10499,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>291.970123358961</v>
+        <v>29.1970123358961</v>
       </c>
       <c r="P3" t="n">
         <v>1.32221275730237</v>
@@ -10314,28 +10522,28 @@
         <v>79.6555435952637</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9147485024</v>
+        <v>0.09147485024</v>
       </c>
       <c r="F4" t="n">
         <v>18.6580552565483</v>
       </c>
       <c r="G4" t="n">
-        <v>72.8647892116254</v>
+        <v>7.28647892116254</v>
       </c>
       <c r="H4" t="n">
-        <v>1.2242072207375</v>
+        <v>0.12242072207375</v>
       </c>
       <c r="I4" t="n">
-        <v>22.8413259699857</v>
+        <v>2.28413259699857</v>
       </c>
       <c r="J4" t="n">
-        <v>137.047955819914</v>
+        <v>13.7047955819914</v>
       </c>
       <c r="K4" t="n">
-        <v>220.819321055902</v>
+        <v>22.0819321055902</v>
       </c>
       <c r="L4" t="n">
-        <v>583.940246717922</v>
+        <v>58.3940246717923</v>
       </c>
       <c r="M4" t="n">
         <v>2.64442551460473</v>
@@ -10344,7 +10552,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>291.970123358961</v>
+        <v>29.1970123358961</v>
       </c>
       <c r="P4" t="n">
         <v>1.32221275730237</v>
@@ -10367,28 +10575,28 @@
         <v>60.9974883387155</v>
       </c>
       <c r="E5" t="n">
-        <v>1.533665939075</v>
+        <v>0.1533665939075</v>
       </c>
       <c r="F5" t="n">
         <v>39.4689630426982</v>
       </c>
       <c r="G5" t="n">
-        <v>93.5497702342124</v>
+        <v>9.35497702342124</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2638668359875</v>
+        <v>0.12638668359875</v>
       </c>
       <c r="I5" t="n">
-        <v>49.8835134404826</v>
+        <v>4.98835134404826</v>
       </c>
       <c r="J5" t="n">
-        <v>299.301080642896</v>
+        <v>29.9301080642896</v>
       </c>
       <c r="K5" t="n">
-        <v>220.819321055902</v>
+        <v>22.0819321055902</v>
       </c>
       <c r="L5" t="n">
-        <v>583.940246717922</v>
+        <v>58.3940246717923</v>
       </c>
       <c r="M5" t="n">
         <v>2.64442551460473</v>
@@ -10397,7 +10605,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>291.970123358961</v>
+        <v>29.1970123358961</v>
       </c>
       <c r="P5" t="n">
         <v>1.32221275730237</v>
@@ -10420,28 +10628,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9940677329</v>
+        <v>0.09940677329</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>21.4008123336921</v>
+        <v>2.14008123336921</v>
       </c>
       <c r="H6" t="n">
-        <v>1.39111888595</v>
+        <v>0.139111888595</v>
       </c>
       <c r="I6" t="n">
-        <v>14.9743690629709</v>
+        <v>1.49743690629709</v>
       </c>
       <c r="J6" t="n">
-        <v>89.8462143778256</v>
+        <v>8.98462143778256</v>
       </c>
       <c r="K6" t="n">
-        <v>220.819321055902</v>
+        <v>22.0819321055902</v>
       </c>
       <c r="L6" t="n">
-        <v>583.940246717922</v>
+        <v>58.3940246717923</v>
       </c>
       <c r="M6" t="n">
         <v>2.64442551460473</v>
@@ -10450,7 +10658,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>291.970123358961</v>
+        <v>29.1970123358961</v>
       </c>
       <c r="P6" t="n">
         <v>1.32221275730237</v>
@@ -10473,28 +10681,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>1.788170039</v>
+        <v>0.1788170039</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>19.2483319590958</v>
+        <v>1.92483319590958</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8940850195</v>
+        <v>0.08940850195</v>
       </c>
       <c r="I7" t="n">
-        <v>9.6241659795479</v>
+        <v>0.96241659795479</v>
       </c>
       <c r="J7" t="n">
-        <v>57.7449958772874</v>
+        <v>5.77449958772874</v>
       </c>
       <c r="K7" t="n">
-        <v>220.819321055902</v>
+        <v>22.0819321055902</v>
       </c>
       <c r="L7" t="n">
-        <v>583.940246717922</v>
+        <v>58.3940246717923</v>
       </c>
       <c r="M7" t="n">
         <v>2.64442551460473</v>
@@ -10503,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>291.970123358961</v>
+        <v>29.1970123358961</v>
       </c>
       <c r="P7" t="n">
         <v>1.32221275730237</v>
@@ -10584,52 +10792,52 @@
         <v>57</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>25.8342303552207</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1096476235</v>
+        <v>0.0012</v>
       </c>
       <c r="F2" t="n">
-        <v>-12.9171151776103</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.83266196340151</v>
+        <v>0.0129171151776103</v>
       </c>
       <c r="H2" t="n">
-        <v>0.197107718425</v>
+        <v>0.050571527</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.54606310129171</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-12.7303155064586</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>93.4264615609457</v>
+        <v>1.08873039827772</v>
       </c>
       <c r="L2" t="n">
-        <v>143.171683804514</v>
+        <v>1.07581328310011</v>
       </c>
       <c r="M2" t="n">
-        <v>1.53245324089597</v>
+        <v>0.988135616312317</v>
       </c>
       <c r="N2" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>59.6548682518808</v>
+        <v>0.179302213850018</v>
       </c>
       <c r="P2" t="n">
-        <v>0.638522183706654</v>
+        <v>0.164689269385386</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0460526940136292</v>
+        <v>0.884455801398042</v>
       </c>
     </row>
     <row r="3">
@@ -10643,205 +10851,46 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>38.751345532831</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.28456781335</v>
+        <v>0.099943054</v>
       </c>
       <c r="F3" t="n">
-        <v>1.07642626480087</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>11.027385662648</v>
+        <v>1.07581328310011</v>
       </c>
       <c r="H3" t="n">
-        <v>0.315414470175</v>
+        <v>0.049971527</v>
       </c>
       <c r="I3" t="n">
-        <v>0.339520419994619</v>
+        <v>0.537906641550054</v>
       </c>
       <c r="J3" t="n">
-        <v>1.6976020999731</v>
+        <v>1.07581328310011</v>
       </c>
       <c r="K3" t="n">
-        <v>93.4264615609457</v>
+        <v>1.08873039827772</v>
       </c>
       <c r="L3" t="n">
-        <v>143.171683804514</v>
+        <v>1.07581328310011</v>
       </c>
       <c r="M3" t="n">
-        <v>1.53245324089597</v>
+        <v>0.988135616312317</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>59.6548682518808</v>
+        <v>0.179302213850018</v>
       </c>
       <c r="P3" t="n">
-        <v>0.638522183706654</v>
+        <v>0.164689269385386</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.0460526940136292</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>37.6749192680301</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.346261127</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-23.3225690706853</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13.0453600053821</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.715348194122222</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-16.6837576670055</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-83.4187883350277</v>
-      </c>
-      <c r="K4" t="n">
-        <v>93.4264615609457</v>
-      </c>
-      <c r="L4" t="n">
-        <v>143.171683804514</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.53245324089597</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>59.6548682518808</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.638522183706654</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-0.0460526940136292</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>60.9974883387155</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.08443526124444</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50.2332256907069</v>
-      </c>
-      <c r="G5" t="n">
-        <v>66.1478272018499</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.559554012122222</v>
-      </c>
-      <c r="I5" t="n">
-        <v>28.1082029770761</v>
-      </c>
-      <c r="J5" t="n">
-        <v>140.541014885381</v>
-      </c>
-      <c r="K5" t="n">
-        <v>93.4264615609457</v>
-      </c>
-      <c r="L5" t="n">
-        <v>143.171683804514</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.53245324089597</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>59.6548682518808</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.638522183706654</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.0460526940136292</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.034672763</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.373226727664155</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0173363815</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.186613363832078</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.933066819160388</v>
-      </c>
-      <c r="K6" t="n">
-        <v>93.4264615609457</v>
-      </c>
-      <c r="L6" t="n">
-        <v>143.171683804514</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.53245324089597</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>59.6548682518808</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.638522183706654</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-0.0460526940136292</v>
+        <v>0.884455801398042</v>
       </c>
     </row>
   </sheetData>
@@ -10916,7 +10965,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -10925,16 +10974,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0012</v>
+        <v>0.211634588</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0129171151776103</v>
+        <v>2.27809029063509</v>
       </c>
       <c r="H2" t="n">
-        <v>0.050571527</v>
+        <v>0.2962408695</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10943,25 +10992,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.08873039827772</v>
+        <v>21.2850232588805</v>
       </c>
       <c r="L2" t="n">
-        <v>1.07581328310011</v>
+        <v>22.3610913092034</v>
       </c>
       <c r="M2" t="n">
-        <v>0.988135616312317</v>
+        <v>1.05055517380626</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.179302213850018</v>
+        <v>5.59027282730086</v>
       </c>
       <c r="P2" t="n">
-        <v>0.164689269385386</v>
+        <v>0.262638793451564</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.884455801398042</v>
+        <v>0.0982036491353985</v>
       </c>
     </row>
     <row r="3">
@@ -10969,52 +11018,105 @@
         <v>58</v>
       </c>
       <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.380847151</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.38213132400431</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.0995387621098</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.65205588275</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-3.50945039155005</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-10.5283511746502</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21.2850232588805</v>
+      </c>
+      <c r="L3" t="n">
+        <v>22.3610913092034</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05055517380626</v>
+      </c>
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.099943054</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.07581328310011</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.049971527</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.537906641550054</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.07581328310011</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.08873039827772</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.07581328310011</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.988135616312317</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
+        <v>5.59027282730086</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.262638793451564</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0982036491353985</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="O3" t="n">
-        <v>0.179302213850018</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.164689269385386</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.884455801398042</v>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.1463939720129</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9232646145</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16.1463939720129</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.9073942061356</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.46163230725</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.45369710306782</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22.3610913092034</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21.2850232588805</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22.3610913092034</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05055517380626</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.59027282730086</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.262638793451564</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0982036491353985</v>
       </c>
     </row>
   </sheetData>
@@ -11089,52 +11191,52 @@
         <v>59</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7642626480086</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.211634588</v>
+        <v>0.224399379</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>2.27809029063509</v>
+        <v>4.83098770721206</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2962408695</v>
+        <v>0.239560865</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.57869607104413</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.15739214208827</v>
       </c>
       <c r="K2" t="n">
-        <v>21.2850232588805</v>
+        <v>7.5728859956943</v>
       </c>
       <c r="L2" t="n">
-        <v>22.3610913092034</v>
+        <v>7.89929043057051</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05055517380626</v>
+        <v>1.04310172305008</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>5.59027282730086</v>
+        <v>1.31654840509508</v>
       </c>
       <c r="P2" t="n">
-        <v>0.262638793451564</v>
+        <v>0.173850287175013</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0982036491353985</v>
+        <v>0.0181066751558363</v>
       </c>
     </row>
     <row r="3">
@@ -11142,7 +11244,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -11151,96 +11253,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.380847151</v>
+        <v>0.254722351</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.38213132400431</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>4.0995387621098</v>
+        <v>2.74189828848224</v>
       </c>
       <c r="H3" t="n">
-        <v>0.65205588275</v>
+        <v>0.1273611755</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.50945039155005</v>
+        <v>1.37094914424112</v>
       </c>
       <c r="J3" t="n">
-        <v>-10.5283511746502</v>
+        <v>2.74189828848224</v>
       </c>
       <c r="K3" t="n">
-        <v>21.2850232588805</v>
+        <v>7.5728859956943</v>
       </c>
       <c r="L3" t="n">
-        <v>22.3610913092034</v>
+        <v>7.89929043057051</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05055517380626</v>
+        <v>1.04310172305008</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>5.59027282730086</v>
+        <v>1.31654840509508</v>
       </c>
       <c r="P3" t="n">
-        <v>0.262638793451564</v>
+        <v>0.173850287175013</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0982036491353985</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.1463939720129</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9232646145</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16.1463939720129</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14.9073942061356</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.46163230725</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.45369710306782</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22.3610913092034</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21.2850232588805</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22.3610913092034</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05055517380626</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5.59027282730086</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.262638793451564</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0982036491353985</v>
+        <v>0.0181066751558363</v>
       </c>
     </row>
   </sheetData>
@@ -11315,52 +11364,52 @@
         <v>60</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5285252960172</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.224399379</v>
+        <v>0.055231849</v>
       </c>
       <c r="F2" t="n">
-        <v>10.7642626480086</v>
+        <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>4.83098770721206</v>
+        <v>0.594530129171152</v>
       </c>
       <c r="H2" t="n">
-        <v>0.239560865</v>
+        <v>0.1785877495</v>
       </c>
       <c r="I2" t="n">
-        <v>2.57869607104413</v>
+        <v>-1.92236544133477</v>
       </c>
       <c r="J2" t="n">
-        <v>5.15739214208827</v>
+        <v>-5.76709632400431</v>
       </c>
       <c r="K2" t="n">
-        <v>7.5728859956943</v>
+        <v>26.9961428525296</v>
       </c>
       <c r="L2" t="n">
-        <v>7.89929043057051</v>
+        <v>29.8518168245425</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04310172305008</v>
+        <v>1.10578081423011</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31654840509508</v>
+        <v>7.46295420613563</v>
       </c>
       <c r="P2" t="n">
-        <v>0.173850287175013</v>
+        <v>0.276445203557527</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0181066751558363</v>
+        <v>0.268016910070985</v>
       </c>
     </row>
     <row r="3">
@@ -11368,52 +11417,105 @@
         <v>60</v>
       </c>
       <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.30194365</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-10.7642626480086</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.50040150699677</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.459108912</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-4.94196891280947</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-14.8259067384284</v>
+      </c>
+      <c r="K3" t="n">
+        <v>26.9961428525296</v>
+      </c>
+      <c r="L3" t="n">
+        <v>29.8518168245425</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.10578081423011</v>
+      </c>
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.254722351</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.74189828848224</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1273611755</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.37094914424112</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.74189828848224</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.5728859956943</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7.89929043057051</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04310172305008</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.31654840509508</v>
+        <v>7.46295420613563</v>
       </c>
       <c r="P3" t="n">
-        <v>0.173850287175013</v>
+        <v>0.276445203557527</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0181066751558363</v>
+        <v>0.268016910070985</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.2927879440258</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.616274174</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32.2927879440258</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19.9012112163617</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.308137087</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.95060560818084</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29.8518168245425</v>
+      </c>
+      <c r="K4" t="n">
+        <v>26.9961428525296</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29.8518168245425</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.10578081423011</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.46295420613563</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.276445203557527</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.268016910070985</v>
       </c>
     </row>
   </sheetData>
@@ -11488,7 +11590,7 @@
         <v>61</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -11497,43 +11599,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.055231849</v>
+        <v>1.049341255</v>
       </c>
       <c r="F2" t="n">
-        <v>-10.7642626480086</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.594530129171152</v>
+        <v>11.295384876211</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1785877495</v>
+        <v>2.568699509</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.92236544133477</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.76709632400431</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>26.9961428525296</v>
+        <v>55.3003123573735</v>
       </c>
       <c r="L2" t="n">
-        <v>29.8518168245425</v>
+        <v>44.0049274811625</v>
       </c>
       <c r="M2" t="n">
-        <v>1.10578081423011</v>
+        <v>0.795744646011843</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>7.46295420613563</v>
+        <v>7.33415458019376</v>
       </c>
       <c r="P2" t="n">
-        <v>0.276445203557527</v>
+        <v>0.13262410766864</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.268016910070985</v>
+        <v>0.0647574948379896</v>
       </c>
     </row>
     <row r="3">
@@ -11541,105 +11643,52 @@
         <v>61</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>21.5285252960172</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.30194365</v>
+        <v>4.088057763</v>
       </c>
       <c r="F3" t="n">
-        <v>-10.7642626480086</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>6.50040150699677</v>
+        <v>44.0049274811625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.459108912</v>
+        <v>2.0440288815</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.94196891280947</v>
+        <v>22.0024637405813</v>
       </c>
       <c r="J3" t="n">
-        <v>-14.8259067384284</v>
+        <v>44.0049274811625</v>
       </c>
       <c r="K3" t="n">
-        <v>26.9961428525296</v>
+        <v>55.3003123573735</v>
       </c>
       <c r="L3" t="n">
-        <v>29.8518168245425</v>
+        <v>44.0049274811625</v>
       </c>
       <c r="M3" t="n">
-        <v>1.10578081423011</v>
+        <v>0.795744646011843</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>7.46295420613563</v>
+        <v>7.33415458019376</v>
       </c>
       <c r="P3" t="n">
-        <v>0.276445203557527</v>
+        <v>0.13262410766864</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.268016910070985</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.2927879440258</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.616274174</v>
-      </c>
-      <c r="F4" t="n">
-        <v>32.2927879440258</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19.9012112163617</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.308137087</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.95060560818084</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29.8518168245425</v>
-      </c>
-      <c r="K4" t="n">
-        <v>26.9961428525296</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29.8518168245425</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.10578081423011</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7.46295420613563</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.276445203557527</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.268016910070985</v>
+        <v>0.0647574948379896</v>
       </c>
     </row>
   </sheetData>
@@ -11714,7 +11763,7 @@
         <v>62</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -11723,96 +11772,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>1.049341255</v>
+        <v>9.614342565</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>11.295384876211</v>
+        <v>103.491308557589</v>
       </c>
       <c r="H2" t="n">
-        <v>2.568699509</v>
+        <v>4.8071712825</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>51.7456542787944</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51.7456542787944</v>
       </c>
       <c r="K2" t="n">
-        <v>55.3003123573735</v>
+        <v>103.491308557589</v>
       </c>
       <c r="L2" t="n">
-        <v>44.0049274811625</v>
+        <v>51.7456542787944</v>
       </c>
       <c r="M2" t="n">
-        <v>0.795744646011843</v>
+        <v>0.5</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>7.33415458019376</v>
+        <v>4.3121378565662</v>
       </c>
       <c r="P2" t="n">
-        <v>0.13262410766864</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0647574948379896</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="n">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.088057763</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G3" t="n">
-        <v>44.0049274811625</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.0440288815</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22.0024637405813</v>
-      </c>
-      <c r="J3" t="n">
-        <v>44.0049274811625</v>
-      </c>
-      <c r="K3" t="n">
-        <v>55.3003123573735</v>
-      </c>
-      <c r="L3" t="n">
-        <v>44.0049274811625</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.795744646011843</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7.33415458019376</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.13262410766864</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0647574948379896</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11887,52 +11883,158 @@
         <v>63</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7642626480086</v>
+        <v>35.880875493362</v>
       </c>
       <c r="E2" t="n">
-        <v>9.614342565</v>
+        <v>0.183096998</v>
       </c>
       <c r="F2" t="n">
-        <v>10.7642626480086</v>
+        <v>-28.7047003946896</v>
       </c>
       <c r="G2" t="n">
-        <v>103.491308557589</v>
+        <v>6.56968058844636</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8071712825</v>
+        <v>0.47156801669</v>
       </c>
       <c r="I2" t="n">
-        <v>51.7456542787944</v>
+        <v>-13.5362186348044</v>
       </c>
       <c r="J2" t="n">
-        <v>51.7456542787944</v>
+        <v>-40.6086559044133</v>
       </c>
       <c r="K2" t="n">
-        <v>103.491308557589</v>
+        <v>60.8354915171869</v>
       </c>
       <c r="L2" t="n">
-        <v>51.7456542787944</v>
+        <v>107.963717678687</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5</v>
+        <v>1.77468308361058</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>4.3121378565662</v>
+        <v>26.9909294196717</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.443670770902646</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.107330573625672</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.5855758880517</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.76003903538</v>
+      </c>
+      <c r="F3" t="n">
+        <v>53.8213132400431</v>
+      </c>
+      <c r="G3" t="n">
+        <v>49.0875587974166</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.62054932919</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33.3987798272336</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100.196339481701</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60.8354915171869</v>
+      </c>
+      <c r="L3" t="n">
+        <v>107.963717678687</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.77468308361058</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>26.9909294196717</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.443670770902646</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.107330573625672</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.481059623</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.178252131324</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2405298115</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.589126065662</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.76737819698601</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60.8354915171869</v>
+      </c>
+      <c r="L4" t="n">
+        <v>107.963717678687</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.77468308361058</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>26.9909294196717</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.443670770902646</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.107330573625672</v>
       </c>
     </row>
   </sheetData>
@@ -12007,52 +12109,52 @@
         <v>64</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>35.880875493362</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.183096998</v>
+        <v>0.233366099</v>
       </c>
       <c r="F2" t="n">
-        <v>-28.7047003946896</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.56968058844636</v>
+        <v>5.02402796555436</v>
       </c>
       <c r="H2" t="n">
-        <v>0.47156801669</v>
+        <v>0.6533877625</v>
       </c>
       <c r="I2" t="n">
-        <v>-13.5362186348044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-40.6086559044133</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.8354915171869</v>
+        <v>127.675093199677</v>
       </c>
       <c r="L2" t="n">
-        <v>107.963717678687</v>
+        <v>177.571698595264</v>
       </c>
       <c r="M2" t="n">
-        <v>1.77468308361058</v>
+        <v>1.39080923416716</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>26.9909294196717</v>
+        <v>59.1905661984212</v>
       </c>
       <c r="P2" t="n">
-        <v>0.443670770902646</v>
+        <v>0.46360307805572</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.107330573625672</v>
+        <v>0.149989348259966</v>
       </c>
     </row>
     <row r="3">
@@ -12060,52 +12162,52 @@
         <v>64</v>
       </c>
       <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.073409426</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.38213132400431</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23.1089219806243</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.30468692375</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.02199636033369</v>
+      </c>
+      <c r="J3" t="n">
+        <v>28.0879854413348</v>
+      </c>
+      <c r="K3" t="n">
+        <v>127.675093199677</v>
+      </c>
+      <c r="L3" t="n">
+        <v>177.571698595264</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.39080923416716</v>
+      </c>
+      <c r="N3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>64.5855758880517</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.76003903538</v>
-      </c>
-      <c r="F3" t="n">
-        <v>53.8213132400431</v>
-      </c>
-      <c r="G3" t="n">
-        <v>49.0875587974166</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.62054932919</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33.3987798272336</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100.196339481701</v>
-      </c>
-      <c r="K3" t="n">
-        <v>60.8354915171869</v>
-      </c>
-      <c r="L3" t="n">
-        <v>107.963717678687</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.77468308361058</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
       <c r="O3" t="n">
-        <v>26.9909294196717</v>
+        <v>59.1905661984212</v>
       </c>
       <c r="P3" t="n">
-        <v>0.443670770902646</v>
+        <v>0.46360307805572</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.107330573625672</v>
+        <v>0.149989348259966</v>
       </c>
     </row>
     <row r="4">
@@ -12113,52 +12215,105 @@
         <v>64</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>10.7642626480086</v>
+        <v>16.1463939720129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.481059623</v>
+        <v>1.5359644215</v>
       </c>
       <c r="F4" t="n">
-        <v>10.7642626480086</v>
+        <v>-5.38213132400431</v>
       </c>
       <c r="G4" t="n">
-        <v>5.178252131324</v>
+        <v>24.8002866765339</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2405298115</v>
+        <v>2.50386182975</v>
       </c>
       <c r="I4" t="n">
-        <v>2.589126065662</v>
+        <v>-13.4761131848762</v>
       </c>
       <c r="J4" t="n">
-        <v>7.76737819698601</v>
+        <v>-53.9044527395048</v>
       </c>
       <c r="K4" t="n">
-        <v>60.8354915171869</v>
+        <v>127.675093199677</v>
       </c>
       <c r="L4" t="n">
-        <v>107.963717678687</v>
+        <v>177.571698595264</v>
       </c>
       <c r="M4" t="n">
-        <v>1.77468308361058</v>
+        <v>1.39080923416716</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>26.9909294196717</v>
+        <v>59.1905661984212</v>
       </c>
       <c r="P4" t="n">
-        <v>0.443670770902646</v>
+        <v>0.46360307805572</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.107330573625672</v>
+        <v>0.149989348259966</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.471759238</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74.7418565769645</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.735879619</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37.3709282884822</v>
+      </c>
+      <c r="J5" t="n">
+        <v>149.483713153929</v>
+      </c>
+      <c r="K5" t="n">
+        <v>127.675093199677</v>
+      </c>
+      <c r="L5" t="n">
+        <v>177.571698595264</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.39080923416716</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>59.1905661984212</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.46360307805572</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.149989348259966</v>
       </c>
     </row>
   </sheetData>
@@ -12239,205 +12394,46 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5285252960172</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.233366099</v>
+        <v>0.131689311</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>5.02402796555436</v>
+        <v>1.41753833153929</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6533877625</v>
+        <v>0.0658446555</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.708769165769645</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.708769165769645</v>
       </c>
       <c r="K2" t="n">
-        <v>127.675093199677</v>
+        <v>1.41753833153929</v>
       </c>
       <c r="L2" t="n">
-        <v>177.571698595264</v>
+        <v>0.708769165769645</v>
       </c>
       <c r="M2" t="n">
-        <v>1.39080923416716</v>
+        <v>0.5</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>59.1905661984212</v>
+        <v>0.0590640971474704</v>
       </c>
       <c r="P2" t="n">
-        <v>0.46360307805572</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.149989348259966</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.073409426</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.38213132400431</v>
-      </c>
-      <c r="G3" t="n">
-        <v>23.1089219806243</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.30468692375</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.02199636033369</v>
-      </c>
-      <c r="J3" t="n">
-        <v>28.0879854413348</v>
-      </c>
-      <c r="K3" t="n">
-        <v>127.675093199677</v>
-      </c>
-      <c r="L3" t="n">
-        <v>177.571698595264</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.39080923416716</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>59.1905661984212</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.46360307805572</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.149989348259966</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.1463939720129</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.5359644215</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-5.38213132400431</v>
-      </c>
-      <c r="G4" t="n">
-        <v>24.8002866765339</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.50386182975</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-13.4761131848762</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-53.9044527395048</v>
-      </c>
-      <c r="K4" t="n">
-        <v>127.675093199677</v>
-      </c>
-      <c r="L4" t="n">
-        <v>177.571698595264</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.39080923416716</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>59.1905661984212</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.46360307805572</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.149989348259966</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.471759238</v>
-      </c>
-      <c r="F5" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74.7418565769645</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.735879619</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37.3709282884822</v>
-      </c>
-      <c r="J5" t="n">
-        <v>149.483713153929</v>
-      </c>
-      <c r="K5" t="n">
-        <v>127.675093199677</v>
-      </c>
-      <c r="L5" t="n">
-        <v>177.571698595264</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.39080923416716</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>59.1905661984212</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.46360307805572</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.149989348259966</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12512,52 +12508,105 @@
         <v>66</v>
       </c>
       <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.140165234</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.50877539289559</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2929254515</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.30625299246502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.79747759956943</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.760749307917342</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.799579599928238</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.126791551319557</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.231358391198599</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.131689311</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.41753833153929</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0658446555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.708769165769645</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.708769165769645</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.41753833153929</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.708769165769645</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0590640971474704</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.445685669</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.79747759956943</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2228428345</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.39873879978472</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.79747759956943</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.30625299246502</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.79747759956943</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.760749307917342</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.799579599928238</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.126791551319557</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.231358391198599</v>
       </c>
     </row>
   </sheetData>
@@ -13182,46 +13231,46 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7642626480086</v>
+        <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.140165234</v>
+        <v>0.0114047426666667</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>1.50877539289559</v>
+        <v>0.36829093649085</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2929254515</v>
+        <v>0.00760362433333333</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.163694818801579</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.654779275206315</v>
       </c>
       <c r="K2" t="n">
-        <v>6.30625299246502</v>
+        <v>0.951659198062433</v>
       </c>
       <c r="L2" t="n">
-        <v>4.79747759956943</v>
+        <v>1.65780437746681</v>
       </c>
       <c r="M2" t="n">
-        <v>0.760749307917342</v>
+        <v>1.74201476835624</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.799579599928238</v>
+        <v>0.552601459155604</v>
       </c>
       <c r="P2" t="n">
-        <v>0.126791551319557</v>
+        <v>0.580671589452079</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.231358391198599</v>
+        <v>-0.0784330456602244</v>
       </c>
     </row>
     <row r="3">
@@ -13238,43 +13287,149 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.445685669</v>
+        <v>0.003802506</v>
       </c>
       <c r="F3" t="n">
-        <v>10.7642626480086</v>
+        <v>-26.9106566200215</v>
       </c>
       <c r="G3" t="n">
-        <v>4.79747759956943</v>
+        <v>0.0409311733046286</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2228428345</v>
+        <v>0.0085567865</v>
       </c>
       <c r="I3" t="n">
-        <v>2.39873879978472</v>
+        <v>-0.230268743272336</v>
       </c>
       <c r="J3" t="n">
-        <v>4.79747759956943</v>
+        <v>-0.921074973089344</v>
       </c>
       <c r="K3" t="n">
-        <v>6.30625299246502</v>
+        <v>0.951659198062433</v>
       </c>
       <c r="L3" t="n">
-        <v>4.79747759956943</v>
+        <v>1.65780437746681</v>
       </c>
       <c r="M3" t="n">
-        <v>0.760749307917342</v>
+        <v>1.74201476835624</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.799579599928238</v>
+        <v>0.552601459155604</v>
       </c>
       <c r="P3" t="n">
-        <v>0.126791551319557</v>
+        <v>0.580671589452079</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.231358391198599</v>
+        <v>-0.0784330456602244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.6749192680301</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.013311067</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.9106566200215</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.50149337459634</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.008557369</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.230284418729817</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.921137674919268</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.951659198062433</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.65780437746681</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.74201476835624</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.552601459155604</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.580671589452079</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.0784330456602244</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.003803671</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0409437136706136</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0019018355</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0204718568353068</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0818874273412271</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.951659198062433</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.65780437746681</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.74201476835624</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.552601459155604</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.580671589452079</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0784330456602244</v>
       </c>
     </row>
   </sheetData>
@@ -13349,52 +13504,52 @@
         <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>32.2927879440258</v>
+        <v>14.3523501973448</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0114047426666667</v>
+        <v>0.00106666666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>21.5285252960172</v>
+        <v>-149.264442052386</v>
       </c>
       <c r="G2" t="n">
-        <v>0.36829093649085</v>
+        <v>0.0153091735438345</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00760362433333333</v>
+        <v>0.0362315176279279</v>
       </c>
       <c r="I2" t="n">
-        <v>0.163694818801579</v>
+        <v>-5.40807726344385</v>
       </c>
       <c r="J2" t="n">
-        <v>0.654779275206315</v>
+        <v>-21.6323090537754</v>
       </c>
       <c r="K2" t="n">
-        <v>0.951659198062433</v>
+        <v>26.6001682528419</v>
       </c>
       <c r="L2" t="n">
-        <v>1.65780437746681</v>
+        <v>71.9694726687135</v>
       </c>
       <c r="M2" t="n">
-        <v>1.74201476835624</v>
+        <v>2.70560215952862</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>0.552601459155604</v>
+        <v>23.9898242229045</v>
       </c>
       <c r="P2" t="n">
-        <v>0.580671589452079</v>
+        <v>0.901867386509539</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0784330456602244</v>
+        <v>0.383353146953529</v>
       </c>
     </row>
     <row r="3">
@@ -13402,52 +13557,52 @@
         <v>68</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>10.7642626480086</v>
+        <v>163.616792249731</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003802506</v>
+        <v>0.0713963685891892</v>
       </c>
       <c r="F3" t="n">
-        <v>-26.9106566200215</v>
+        <v>62.43272335845</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0409311733046286</v>
+        <v>11.6816448068426</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0085567865</v>
+        <v>0.103696416683483</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.230268743272336</v>
+        <v>6.47404969606248</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.921074973089344</v>
+        <v>25.8961987842499</v>
       </c>
       <c r="K3" t="n">
-        <v>0.951659198062433</v>
+        <v>26.6001682528419</v>
       </c>
       <c r="L3" t="n">
-        <v>1.65780437746681</v>
+        <v>71.9694726687135</v>
       </c>
       <c r="M3" t="n">
-        <v>1.74201476835624</v>
+        <v>2.70560215952862</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.552601459155604</v>
+        <v>23.9898242229045</v>
       </c>
       <c r="P3" t="n">
-        <v>0.580671589452079</v>
+        <v>0.901867386509539</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.0784330456602244</v>
+        <v>0.383353146953529</v>
       </c>
     </row>
     <row r="4">
@@ -13455,52 +13610,52 @@
         <v>68</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>37.6749192680301</v>
+        <v>101.184068891281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.013311067</v>
+        <v>0.135996464777778</v>
       </c>
       <c r="F4" t="n">
-        <v>26.9106566200215</v>
+        <v>90.4198062432723</v>
       </c>
       <c r="G4" t="n">
-        <v>0.50149337459634</v>
+        <v>13.7606756610453</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008557369</v>
+        <v>0.121069150888889</v>
       </c>
       <c r="I4" t="n">
-        <v>0.230284418729817</v>
+        <v>10.9470491654108</v>
       </c>
       <c r="J4" t="n">
-        <v>0.921137674919268</v>
+        <v>43.7881966616434</v>
       </c>
       <c r="K4" t="n">
-        <v>0.951659198062433</v>
+        <v>26.6001682528419</v>
       </c>
       <c r="L4" t="n">
-        <v>1.65780437746681</v>
+        <v>71.9694726687135</v>
       </c>
       <c r="M4" t="n">
-        <v>1.74201476835624</v>
+        <v>2.70560215952862</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.552601459155604</v>
+        <v>23.9898242229045</v>
       </c>
       <c r="P4" t="n">
-        <v>0.580671589452079</v>
+        <v>0.901867386509539</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.0784330456602244</v>
+        <v>0.383353146953529</v>
       </c>
     </row>
     <row r="5">
@@ -13508,7 +13663,7 @@
         <v>68</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -13517,43 +13672,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003803671</v>
+        <v>0.106141837</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0409437136706136</v>
+        <v>1.14253861141012</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0019018355</v>
+        <v>0.0530709185</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0204718568353068</v>
+        <v>0.571269305705059</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0818874273412271</v>
+        <v>2.28507722282024</v>
       </c>
       <c r="K5" t="n">
-        <v>0.951659198062433</v>
+        <v>26.6001682528419</v>
       </c>
       <c r="L5" t="n">
-        <v>1.65780437746681</v>
+        <v>71.9694726687135</v>
       </c>
       <c r="M5" t="n">
-        <v>1.74201476835624</v>
+        <v>2.70560215952862</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0.552601459155604</v>
+        <v>23.9898242229045</v>
       </c>
       <c r="P5" t="n">
-        <v>0.580671589452079</v>
+        <v>0.901867386509539</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.0784330456602244</v>
+        <v>0.383353146953529</v>
       </c>
     </row>
   </sheetData>
@@ -13628,52 +13783,52 @@
         <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>14.3523501973448</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00106666666666667</v>
+        <v>0.189239823</v>
       </c>
       <c r="F2" t="n">
-        <v>-149.264442052386</v>
+        <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0153091735438345</v>
+        <v>2.03702715823466</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0362315176279279</v>
+        <v>0.60418947375</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.40807726344385</v>
+        <v>-6.5036541846071</v>
       </c>
       <c r="J2" t="n">
-        <v>-21.6323090537754</v>
+        <v>-45.5255792922497</v>
       </c>
       <c r="K2" t="n">
-        <v>26.6001682528419</v>
+        <v>527.190095419208</v>
       </c>
       <c r="L2" t="n">
-        <v>71.9694726687135</v>
+        <v>1663.84641915471</v>
       </c>
       <c r="M2" t="n">
-        <v>2.70560215952862</v>
+        <v>3.15606539958164</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>23.9898242229045</v>
+        <v>970.577077840245</v>
       </c>
       <c r="P2" t="n">
-        <v>0.901867386509539</v>
+        <v>1.84103814975596</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.383353146953529</v>
+        <v>0.0670977455205882</v>
       </c>
     </row>
     <row r="3">
@@ -13681,52 +13836,52 @@
         <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>163.616792249731</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0713963685891892</v>
+        <v>1.0191391245</v>
       </c>
       <c r="F3" t="n">
-        <v>62.43272335845</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>11.6816448068426</v>
+        <v>21.9405624219591</v>
       </c>
       <c r="H3" t="n">
-        <v>0.103696416683483</v>
+        <v>0.88086916975</v>
       </c>
       <c r="I3" t="n">
-        <v>6.47404969606248</v>
+        <v>9.48190710172228</v>
       </c>
       <c r="J3" t="n">
-        <v>25.8961987842499</v>
+        <v>66.373349712056</v>
       </c>
       <c r="K3" t="n">
-        <v>26.6001682528419</v>
+        <v>527.190095419208</v>
       </c>
       <c r="L3" t="n">
-        <v>71.9694726687135</v>
+        <v>1663.84641915471</v>
       </c>
       <c r="M3" t="n">
-        <v>2.70560215952862</v>
+        <v>3.15606539958164</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="O3" t="n">
-        <v>23.9898242229045</v>
+        <v>970.577077840245</v>
       </c>
       <c r="P3" t="n">
-        <v>0.901867386509539</v>
+        <v>1.84103814975596</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.383353146953529</v>
+        <v>0.0670977455205882</v>
       </c>
     </row>
     <row r="4">
@@ -13734,52 +13889,52 @@
         <v>69</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>101.184068891281</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.135996464777778</v>
+        <v>0.742599215</v>
       </c>
       <c r="F4" t="n">
-        <v>90.4198062432723</v>
+        <v>-7.17617509867241</v>
       </c>
       <c r="G4" t="n">
-        <v>13.7606756610453</v>
+        <v>7.99353299246502</v>
       </c>
       <c r="H4" t="n">
-        <v>0.121069150888889</v>
+        <v>1.05732083333333</v>
       </c>
       <c r="I4" t="n">
-        <v>10.9470491654108</v>
+        <v>-7.58751943547423</v>
       </c>
       <c r="J4" t="n">
-        <v>43.7881966616434</v>
+        <v>-53.1126360483196</v>
       </c>
       <c r="K4" t="n">
-        <v>26.6001682528419</v>
+        <v>527.190095419208</v>
       </c>
       <c r="L4" t="n">
-        <v>71.9694726687135</v>
+        <v>1663.84641915471</v>
       </c>
       <c r="M4" t="n">
-        <v>2.70560215952862</v>
+        <v>3.15606539958164</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="O4" t="n">
-        <v>23.9898242229045</v>
+        <v>970.577077840245</v>
       </c>
       <c r="P4" t="n">
-        <v>0.901867386509539</v>
+        <v>1.84103814975596</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.383353146953529</v>
+        <v>0.0670977455205882</v>
       </c>
     </row>
     <row r="5">
@@ -13787,52 +13942,211 @@
         <v>69</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>10.7642626480086</v>
+        <v>17.940437746681</v>
       </c>
       <c r="E5" t="n">
-        <v>0.106141837</v>
+        <v>1.37204245166667</v>
       </c>
       <c r="F5" t="n">
-        <v>10.7642626480086</v>
+        <v>7.17617509867241</v>
       </c>
       <c r="G5" t="n">
-        <v>1.14253861141012</v>
+        <v>24.6150421899294</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0530709185</v>
+        <v>1.37208490633333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.571269305705059</v>
+        <v>9.84632153809353</v>
       </c>
       <c r="J5" t="n">
-        <v>2.28507722282024</v>
+        <v>68.9242507666547</v>
       </c>
       <c r="K5" t="n">
-        <v>26.6001682528419</v>
+        <v>527.190095419208</v>
       </c>
       <c r="L5" t="n">
-        <v>71.9694726687135</v>
+        <v>1663.84641915471</v>
       </c>
       <c r="M5" t="n">
-        <v>2.70560215952862</v>
+        <v>3.15606539958164</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="O5" t="n">
-        <v>23.9898242229045</v>
+        <v>970.577077840245</v>
       </c>
       <c r="P5" t="n">
-        <v>0.901867386509539</v>
+        <v>1.84103814975596</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.383353146953529</v>
+        <v>0.0670977455205882</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.372127361</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.7699393003229</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.573526114</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>527.190095419208</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1663.84641915471</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.15606539958164</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="O6" t="n">
+        <v>970.577077840245</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.84103814975596</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0670977455205882</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.774924867</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.1057574488698</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21.1734888985</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>527.190095419208</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1663.84641915471</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.15606539958164</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="O7" t="n">
+        <v>970.577077840245</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.84103814975596</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0670977455205882</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40.57205293</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G8" t="n">
+        <v>436.728233907427</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20.286026465</v>
+      </c>
+      <c r="I8" t="n">
+        <v>218.364116953714</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1528.548818676</v>
+      </c>
+      <c r="K8" t="n">
+        <v>527.190095419208</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1663.84641915471</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.15606539958164</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="O8" t="n">
+        <v>970.577077840245</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.84103814975596</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0670977455205882</v>
       </c>
     </row>
   </sheetData>
@@ -13907,7 +14221,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -13916,361 +14230,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.189239823</v>
+        <v>0.50945965</v>
       </c>
       <c r="F2" t="n">
-        <v>-10.7642626480086</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>2.03702715823466</v>
+        <v>5.48395748116254</v>
       </c>
       <c r="H2" t="n">
-        <v>0.60418947375</v>
+        <v>0.254729825</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.5036541846071</v>
+        <v>2.74197874058127</v>
       </c>
       <c r="J2" t="n">
-        <v>-45.5255792922497</v>
+        <v>2.74197874058127</v>
       </c>
       <c r="K2" t="n">
-        <v>527.190095419208</v>
+        <v>5.48395748116254</v>
       </c>
       <c r="L2" t="n">
-        <v>1663.84641915471</v>
+        <v>2.74197874058127</v>
       </c>
       <c r="M2" t="n">
-        <v>3.15606539958164</v>
+        <v>0.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.71428571428571</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>970.577077840245</v>
+        <v>0.228498228381773</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84103814975596</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0670977455205882</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.0191391245</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21.9405624219591</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.88086916975</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.48190710172228</v>
-      </c>
-      <c r="J3" t="n">
-        <v>66.373349712056</v>
-      </c>
-      <c r="K3" t="n">
-        <v>527.190095419208</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1663.84641915471</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.15606539958164</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.71428571428571</v>
-      </c>
-      <c r="O3" t="n">
-        <v>970.577077840245</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.84103814975596</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0670977455205882</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.742599215</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-7.17617509867241</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.99353299246502</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.05732083333333</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-7.58751943547423</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-53.1126360483196</v>
-      </c>
-      <c r="K4" t="n">
-        <v>527.190095419208</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1663.84641915471</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.15606539958164</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.71428571428571</v>
-      </c>
-      <c r="O4" t="n">
-        <v>970.577077840245</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.84103814975596</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0670977455205882</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.940437746681</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.37204245166667</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7.17617509867241</v>
-      </c>
-      <c r="G5" t="n">
-        <v>24.6150421899294</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.37208490633333</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.84632153809353</v>
-      </c>
-      <c r="J5" t="n">
-        <v>68.9242507666547</v>
-      </c>
-      <c r="K5" t="n">
-        <v>527.190095419208</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1663.84641915471</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.15606539958164</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.71428571428571</v>
-      </c>
-      <c r="O5" t="n">
-        <v>970.577077840245</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.84103814975596</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.0670977455205882</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.372127361</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14.7699393003229</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.573526114</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>527.190095419208</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1663.84641915471</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.15606539958164</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.71428571428571</v>
-      </c>
-      <c r="O6" t="n">
-        <v>970.577077840245</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.84103814975596</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0670977455205882</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.774924867</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19.1057574488698</v>
-      </c>
-      <c r="H7" t="n">
-        <v>21.1734888985</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>527.190095419208</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1663.84641915471</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.15606539958164</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.71428571428571</v>
-      </c>
-      <c r="O7" t="n">
-        <v>970.577077840245</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.84103814975596</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.0670977455205882</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="n">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E8" t="n">
-        <v>40.57205293</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G8" t="n">
-        <v>436.728233907427</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20.286026465</v>
-      </c>
-      <c r="I8" t="n">
-        <v>218.364116953714</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1528.548818676</v>
-      </c>
-      <c r="K8" t="n">
-        <v>527.190095419208</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1663.84641915471</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.15606539958164</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.71428571428571</v>
-      </c>
-      <c r="O8" t="n">
-        <v>970.577077840245</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.84103814975596</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.0670977455205882</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14345,126 +14341,6 @@
         <v>71</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.50945965</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.48395748116254</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.254729825</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.74197874058127</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.74197874058127</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.48395748116254</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.74197874058127</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.228498228381773</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -14515,7 +14391,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="n">
         <v>32</v>
